--- a/downloaded_files/MTHS114_Tutorial-35053.xlsx
+++ b/downloaded_files/MTHS114_Tutorial-35053.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Adam Amr Moharram</x:t>
   </x:si>
   <x:si>
+    <x:t>1230157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادهم احمد محمود ممدوح شبانة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adham ahmed mahmoud mamdouh Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230158</x:t>
   </x:si>
   <x:si>
@@ -409,6 +418,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Ahmed Said Abdo Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى هلال عبدالسلام الانور سعد محمد الحلو</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yahia helal</x:t>
   </x:si>
   <x:si>
     <x:t>1230133</x:t>
@@ -560,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +878,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1047,7 +1065,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45915.5069371875</x:v>
+        <x:v>45920.8868488426</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1079,7 +1097,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.665081331</x:v>
+        <x:v>45915.5069371875</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1111,7 +1129,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.5217092593</x:v>
+        <x:v>45906.665081331</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1143,7 +1161,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.5216514236</x:v>
+        <x:v>45915.5217092593</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1175,7 +1193,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4145695602</x:v>
+        <x:v>45915.5216514236</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1207,7 +1225,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.5219884606</x:v>
+        <x:v>45907.4145695602</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1239,7 +1257,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.5215869213</x:v>
+        <x:v>45915.5219884606</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1271,7 +1289,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45915.5215869213</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1303,7 +1321,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.5069761574</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1353,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45915.5069761574</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1385,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4150699421</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1399,7 +1417,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.5084540509</x:v>
+        <x:v>45909.4150699421</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1431,7 +1449,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4148371528</x:v>
+        <x:v>45915.5084540509</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1481,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45909.4148371528</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1495,7 +1513,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.3206697917</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1527,7 +1545,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4146064815</x:v>
+        <x:v>45917.3206697917</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1577,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.521912963</x:v>
+        <x:v>45907.4146064815</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1609,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45915.521912963</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1641,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1673,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5217691782</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1705,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.415522338</x:v>
+        <x:v>45915.5217691782</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1737,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45909.415522338</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1769,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648724537</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1801,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.5072633449</x:v>
+        <x:v>45906.6648724537</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1815,7 +1833,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5223075231</x:v>
+        <x:v>45915.5072633449</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1847,7 +1865,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45915.5223075231</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1897,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5073589468</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1929,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4146052083</x:v>
+        <x:v>45915.5073589468</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1961,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.4146052083</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +1993,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2007,7 +2025,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2039,7 +2057,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.5070427431</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2089,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45915.5070427431</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2121,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4147787037</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2153,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6661054051</x:v>
+        <x:v>45907.4147787037</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2185,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4145070602</x:v>
+        <x:v>45906.6661054051</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2217,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6875249653</x:v>
+        <x:v>45907.4145070602</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2249,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45906.6875249653</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2281,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45915.5081951042</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2313,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.414718669</x:v>
+        <x:v>45915.5081951042</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2345,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4146670139</x:v>
+        <x:v>45920.8840551736</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2377,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4151944097</x:v>
+        <x:v>45907.414718669</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2391,7 +2409,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45915.5198525463</x:v>
+        <x:v>45907.4146670139</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2408,6 +2426,70 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45909.4151944097</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45915.5198525463</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS114_Tutorial-35053.xlsx
+++ b/downloaded_files/MTHS114_Tutorial-35053.xlsx
@@ -51,6 +51,15 @@
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
+    <x:t>2240005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد محمد عبدالرحيم حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED MOHAMED MOHAMED ABDELRREHEM</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230156</x:t>
   </x:si>
   <x:si>
@@ -382,15 +391,6 @@
   </x:si>
   <x:si>
     <x:t>Nouran Maher Mostafa Kamel Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نورهان أيمن منصور أحمد ندا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
   </x:si>
   <x:si>
     <x:t>1200838</x:t>
@@ -1033,7 +1033,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.414590544</x:v>
+        <x:v>45929.4145261574</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1065,7 +1065,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45920.8868488426</x:v>
+        <x:v>45907.414590544</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1097,7 +1097,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45915.5069371875</x:v>
+        <x:v>45920.8868488426</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1129,7 +1129,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.665081331</x:v>
+        <x:v>45915.5069371875</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1161,7 +1161,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.5217092593</x:v>
+        <x:v>45906.665081331</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1193,7 +1193,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.5216514236</x:v>
+        <x:v>45915.5217092593</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1225,7 +1225,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145695602</x:v>
+        <x:v>45915.5216514236</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1257,7 +1257,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.5219884606</x:v>
+        <x:v>45907.4145695602</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1289,7 +1289,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.5215869213</x:v>
+        <x:v>45915.5219884606</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1321,7 +1321,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45915.5215869213</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1353,7 +1353,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.5069761574</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1385,7 +1385,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45915.5069761574</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1417,7 +1417,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4150699421</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1449,7 +1449,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.5084540509</x:v>
+        <x:v>45909.4150699421</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1481,7 +1481,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4148371528</x:v>
+        <x:v>45915.5084540509</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1513,7 +1513,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45909.4148371528</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1545,7 +1545,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45917.3206697917</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1577,7 +1577,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4146064815</x:v>
+        <x:v>45917.3206697917</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1609,7 +1609,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.521912963</x:v>
+        <x:v>45907.4146064815</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1641,7 +1641,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45915.521912963</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1673,7 +1673,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1705,7 +1705,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5217691782</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1737,7 +1737,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.415522338</x:v>
+        <x:v>45915.5217691782</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1769,7 +1769,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45909.415522338</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1801,7 +1801,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6648724537</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,7 +1833,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.5072633449</x:v>
+        <x:v>45906.6648724537</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1865,7 +1865,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5223075231</x:v>
+        <x:v>45915.5072633449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1897,7 +1897,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45915.5223075231</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1929,7 +1929,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.5073589468</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1961,7 +1961,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4146052083</x:v>
+        <x:v>45915.5073589468</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,7 +1993,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45907.4146052083</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2025,7 +2025,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2057,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2089,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.5070427431</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2121,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45915.5070427431</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2153,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4147787037</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2185,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6661054051</x:v>
+        <x:v>45907.4147787037</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2217,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4145070602</x:v>
+        <x:v>45906.6661054051</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>

--- a/downloaded_files/MTHS114_Tutorial-35053.xlsx
+++ b/downloaded_files/MTHS114_Tutorial-35053.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Osama Shehata Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد رضا محمد عبد الرحمن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Reda Mohamed abdel rahman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230010</x:t>
   </x:si>
   <x:si>
@@ -258,6 +267,15 @@
     <x:t>Abdelrahman Emad Eldeen Mohamed Ibrahim Mohamed Fatouh</x:t>
   </x:si>
   <x:si>
+    <x:t>1230204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله سمير عبد الموجود عسكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Samir Abdelmawgoud Askar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230205</x:t>
   </x:si>
   <x:si>
@@ -373,15 +391,6 @@
   </x:si>
   <x:si>
     <x:t>Mohaned Mohammed fathy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ندى سراج محمد عصمت محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nada Serag Mohamed Esmat</x:t>
   </x:si>
   <x:si>
     <x:t>1200451</x:t>
@@ -578,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -878,7 +887,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1001,7 +1010,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45915.5068962616</x:v>
+        <x:v>45907.415499919</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1033,7 +1042,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45929.4145261574</x:v>
+        <x:v>45915.5068962616</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1065,7 +1074,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.414590544</x:v>
+        <x:v>45929.4145261574</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1097,7 +1106,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45920.8868488426</x:v>
+        <x:v>45907.414590544</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1129,7 +1138,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.5069371875</x:v>
+        <x:v>45920.8868488426</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1161,7 +1170,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.665081331</x:v>
+        <x:v>45915.5069371875</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1193,7 +1202,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.5217092593</x:v>
+        <x:v>45906.665081331</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1225,7 +1234,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.5216514236</x:v>
+        <x:v>45915.5217092593</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1257,7 +1266,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4145695602</x:v>
+        <x:v>45915.5216514236</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1289,7 +1298,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.5219884606</x:v>
+        <x:v>45907.4145695602</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1321,7 +1330,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.5215869213</x:v>
+        <x:v>45915.5219884606</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1353,7 +1362,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45915.5215869213</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1385,7 +1394,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.5069761574</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1417,7 +1426,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45915.5069761574</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1449,7 +1458,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4150699421</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1481,7 +1490,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5084540509</x:v>
+        <x:v>45909.4150699421</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1513,7 +1522,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4148371528</x:v>
+        <x:v>45915.5084540509</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1545,7 +1554,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45909.4148371528</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1577,7 +1586,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3206697917</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1609,7 +1618,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4146064815</x:v>
+        <x:v>45917.3206697917</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1641,7 +1650,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.521912963</x:v>
+        <x:v>45907.4146064815</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1673,7 +1682,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4144263889</x:v>
+        <x:v>45915.521912963</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1705,7 +1714,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45907.4144263889</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1737,7 +1746,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5217691782</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1769,7 +1778,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.415522338</x:v>
+        <x:v>45915.5217691782</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1801,7 +1810,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45931.3452956019</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1833,7 +1842,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6648724537</x:v>
+        <x:v>45909.415522338</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1865,7 +1874,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.5072633449</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1897,7 +1906,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.5223075231</x:v>
+        <x:v>45906.6648724537</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1929,7 +1938,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45915.5072633449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1961,7 +1970,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.5073589468</x:v>
+        <x:v>45915.5223075231</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4146052083</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2025,7 +2034,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.414816169</x:v>
+        <x:v>45915.5073589468</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2057,7 +2066,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45907.4146052083</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2089,7 +2098,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.7421650463</x:v>
+        <x:v>45907.414816169</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2121,7 +2130,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.5070427431</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2153,7 +2162,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45906.7421650463</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4147787037</x:v>
+        <x:v>45915.5070427431</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6661054051</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2249,7 +2258,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6875249653</x:v>
+        <x:v>45906.6661054051</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2281,7 +2290,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45906.6875249653</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2313,7 +2322,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45915.5081951042</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45920.8840551736</x:v>
+        <x:v>45915.5081951042</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2377,7 +2386,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.414718669</x:v>
+        <x:v>45920.8840551736</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2409,7 +2418,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4146670139</x:v>
+        <x:v>45907.414718669</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2441,7 +2450,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45909.4151944097</x:v>
+        <x:v>45907.4146670139</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2473,7 +2482,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45915.5198525463</x:v>
+        <x:v>45909.4151944097</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2490,6 +2499,38 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45915.5198525463</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS114_Tutorial-35053.xlsx
+++ b/downloaded_files/MTHS114_Tutorial-35053.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -382,6 +382,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى مرسى عبد المتجلى محمد مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Morsy Abdel Motagally</x:t>
   </x:si>
   <x:si>
     <x:t>1220147</x:t>
@@ -587,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -887,7 +896,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2226,7 +2235,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45937.3412021991</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2258,7 +2267,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6661054051</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2290,7 +2299,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6875249653</x:v>
+        <x:v>45906.6661054051</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2322,7 +2331,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45906.6875249653</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2354,7 +2363,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45915.5081951042</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2386,7 +2395,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45920.8840551736</x:v>
+        <x:v>45915.5081951042</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2418,7 +2427,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.414718669</x:v>
+        <x:v>45920.8840551736</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2450,7 +2459,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4146670139</x:v>
+        <x:v>45907.414718669</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2482,7 +2491,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45909.4151944097</x:v>
+        <x:v>45907.4146670139</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2514,7 +2523,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45915.5198525463</x:v>
+        <x:v>45909.4151944097</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2531,6 +2540,38 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45915.5198525463</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS114_Tutorial-35053.xlsx
+++ b/downloaded_files/MTHS114_Tutorial-35053.xlsx
@@ -246,7 +246,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1190372</x:t>
@@ -345,7 +345,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230239</x:t>
@@ -399,7 +399,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1200451</x:t>
@@ -462,7 +462,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
   <x:si>
     <x:t>1230141</x:t>

--- a/downloaded_files/MTHS114_Tutorial-35053.xlsx
+++ b/downloaded_files/MTHS114_Tutorial-35053.xlsx
@@ -153,10 +153,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230178</x:t>
